--- a/biology/Botanique/Tetratheca/Tetratheca.xlsx
+++ b/biology/Botanique/Tetratheca/Tetratheca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetratheca est un genre botanique d'environ 50 à 60 espèces d'arbustes endémiques d'Australie. Il est classé dans la famille des Tremandraceae selon la classification classique, ou dans la famille des Elaeocarpaceae selon la classification APG III.
 On le trouve dans toute l'Australie extra-tropicale, dans tous les États du continent à l'exception du Territoire du Nord. 
@@ -512,7 +524,9 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tetratheca affinis Endl.
@@ -561,7 +575,7 @@
 Tetratheca subaphylla Benth.
 Tetratheca thymifolia Sm.
 Tetratheca virgata Steetz
-Selon NCBI  (17 févr. 2011)[1] :
+Selon NCBI  (17 févr. 2011) :
 Tetratheca aphylla
 sous-espèce Tetratheca aphylla subsp. aphylla
 sous-espèce Tetratheca aphylla subsp. megacarpa
